--- a/PCB - Rack/Project Outputs for G2_LV/G2_LV4.xlsx
+++ b/PCB - Rack/Project Outputs for G2_LV/G2_LV4.xlsx
@@ -629,7 +629,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -652,11 +652,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -672,6 +683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -986,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,7 +1013,7 @@
     <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +1030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1035,7 +1047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1052,7 +1064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -1069,7 +1081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1086,7 +1098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -1103,7 +1115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1120,7 +1132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -1137,7 +1149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -1154,7 +1166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
@@ -1171,7 +1183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
@@ -1188,7 +1200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
@@ -1205,7 +1217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
@@ -1221,8 +1233,12 @@
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="7"/>
+      <c r="G13">
+        <v>1456533</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
@@ -1239,7 +1255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>43</v>
       </c>
@@ -1255,8 +1271,9 @@
       <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
@@ -1273,7 +1290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
@@ -1290,7 +1307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
@@ -1306,8 +1323,9 @@
       <c r="E18" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>54</v>
       </c>
@@ -1323,8 +1341,9 @@
       <c r="E19" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
@@ -1341,7 +1360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>60</v>
       </c>
@@ -1358,7 +1377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>63</v>
       </c>
@@ -1375,7 +1394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>66</v>
       </c>
@@ -1392,7 +1411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>69</v>
       </c>
@@ -1409,7 +1428,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>72</v>
       </c>
@@ -1426,7 +1445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>74</v>
       </c>
@@ -1443,7 +1462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>76</v>
       </c>
@@ -1460,7 +1479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>79</v>
       </c>
@@ -1477,7 +1496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>82</v>
       </c>
@@ -1494,7 +1513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>85</v>
       </c>
@@ -1511,7 +1530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>88</v>
       </c>
@@ -1528,7 +1547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>91</v>
       </c>
@@ -1544,8 +1563,9 @@
       <c r="E32" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>94</v>
       </c>
@@ -1562,7 +1582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>97</v>
       </c>
@@ -1579,7 +1599,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>101</v>
       </c>
@@ -1596,7 +1616,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>103</v>
       </c>
@@ -1613,7 +1633,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>105</v>
       </c>
@@ -1630,7 +1650,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>107</v>
       </c>
@@ -1646,8 +1666,9 @@
       <c r="E38" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>110</v>
       </c>
@@ -1663,8 +1684,9 @@
       <c r="E39" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>113</v>
       </c>
@@ -1681,7 +1703,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>117</v>
       </c>
@@ -1698,7 +1720,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>121</v>
       </c>
@@ -1715,7 +1737,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>123</v>
       </c>
@@ -1732,7 +1754,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>127</v>
       </c>
@@ -1748,8 +1770,9 @@
       <c r="E44" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>129</v>
       </c>
@@ -1766,7 +1789,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>131</v>
       </c>
@@ -1783,7 +1806,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>134</v>
       </c>
@@ -1800,7 +1823,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>138</v>
       </c>
@@ -1817,7 +1840,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>141</v>
       </c>
@@ -1834,7 +1857,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>143</v>
       </c>
@@ -1851,7 +1874,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>145</v>
       </c>
@@ -1868,7 +1891,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>149</v>
       </c>
@@ -1885,7 +1908,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>153</v>
       </c>
@@ -1902,7 +1925,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>155</v>
       </c>
@@ -1919,7 +1942,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>157</v>
       </c>
@@ -1936,7 +1959,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>159</v>
       </c>
@@ -1952,8 +1975,9 @@
       <c r="E56" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>161</v>
       </c>
@@ -1970,7 +1994,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>163</v>
       </c>
@@ -1986,8 +2010,9 @@
       <c r="E58" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>166</v>
       </c>
@@ -2004,7 +2029,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>168</v>
       </c>
@@ -2020,8 +2045,9 @@
       <c r="E60" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>170</v>
       </c>
@@ -2038,7 +2064,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>172</v>
       </c>
@@ -2055,7 +2081,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>174</v>
       </c>
@@ -2072,7 +2098,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>176</v>
       </c>
@@ -2089,7 +2115,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>179</v>
       </c>
@@ -2105,8 +2131,9 @@
       <c r="E65" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>181</v>
       </c>
@@ -2123,7 +2150,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>183</v>
       </c>
@@ -2140,7 +2167,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>185</v>
       </c>
@@ -2157,7 +2184,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>187</v>
       </c>
